--- a/intro/BulkCreativeImportTemplate.v24 (HKTW).xlsx
+++ b/intro/BulkCreativeImportTemplate.v24 (HKTW).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandy.chang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boya.zeng\PycharmProjects\Creative Creation Assistant\intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC05229-E61F-44CE-8F00-036D7CBEBF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD808316-967F-4B44-BD68-D1765FB7CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hosted Display" sheetId="6" r:id="rId1"/>
@@ -135,7 +135,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -150,7 +150,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -165,7 +165,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -272,7 +272,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -297,7 +297,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -468,7 +468,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -482,7 +482,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -496,7 +496,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -510,7 +510,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -524,7 +524,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -538,7 +538,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -552,7 +552,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -616,7 +616,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -631,7 +631,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -646,7 +646,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -686,7 +686,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -700,7 +700,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -714,7 +714,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -728,7 +728,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -742,7 +742,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -756,7 +756,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -770,7 +770,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -784,7 +784,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -798,7 +798,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -853,7 +853,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -868,7 +868,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -883,7 +883,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -923,7 +923,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -937,7 +937,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -951,7 +951,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -965,7 +965,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -979,7 +979,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -993,7 +993,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1007,7 +1007,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1021,7 +1021,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1076,7 +1076,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1261,7 +1261,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1301,7 +1301,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1368,7 +1368,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1409,7 +1409,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1423,7 +1423,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1437,7 +1437,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1451,7 +1451,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1465,7 +1465,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1479,7 +1479,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1493,7 +1493,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -1548,7 +1548,7 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="宋体"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -2943,13 +2943,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2957,7 +2957,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2965,7 +2965,7 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2973,7 +2973,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2981,7 +2981,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3001,14 +3001,14 @@
     <font>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3024,6 +3024,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3114,16 +3121,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3406,24 +3413,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="181.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="4" width="181.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
     <col min="6" max="17" width="24" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7265625" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3485,7 +3492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3499,7 +3506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3513,7 +3520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3527,7 +3534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3541,7 +3548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3555,7 +3562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -3569,7 +3576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -3583,7 +3590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3597,7 +3604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -3611,7 +3618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3625,7 +3632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -3639,7 +3646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -3653,7 +3660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -3667,7 +3674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3681,7 +3688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -3695,7 +3702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -3709,7 +3716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -3723,7 +3730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -3737,7 +3744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -3751,7 +3758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -3765,7 +3772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3779,7 +3786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -3793,7 +3800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -3807,7 +3814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -3821,7 +3828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -3835,7 +3842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -3849,7 +3856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -3863,7 +3870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -3877,7 +3884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -3891,7 +3898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -3905,7 +3912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -3919,7 +3926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -3933,7 +3940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -3947,7 +3954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -3961,7 +3968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -3975,7 +3982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -3989,7 +3996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -4003,7 +4010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -4017,7 +4024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -4031,7 +4038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -4045,266 +4052,267 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E42" s="15"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
     </row>
-    <row r="53" spans="4:5">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
     </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
     </row>
-    <row r="63" spans="4:5">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="4:5">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E64" s="15"/>
     </row>
-    <row r="65" spans="4:5">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
     </row>
-    <row r="66" spans="4:5">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
     </row>
-    <row r="67" spans="4:5">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" spans="4:5">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
     </row>
-    <row r="69" spans="4:5">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
     </row>
-    <row r="70" spans="4:5">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
     </row>
-    <row r="71" spans="4:5">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
     </row>
-    <row r="72" spans="4:5">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
     </row>
-    <row r="73" spans="4:5">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" spans="4:5">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
     </row>
-    <row r="75" spans="4:5">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="4:5">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
     </row>
-    <row r="77" spans="4:5">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
     </row>
-    <row r="78" spans="4:5">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
     </row>
-    <row r="79" spans="4:5">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="4:5">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
     </row>
-    <row r="81" spans="4:5">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
     </row>
-    <row r="84" spans="4:5">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
     </row>
-    <row r="85" spans="4:5">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
     </row>
-    <row r="86" spans="4:5">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E86" s="15"/>
     </row>
-    <row r="87" spans="4:5">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
     </row>
-    <row r="88" spans="4:5">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
     </row>
-    <row r="89" spans="4:5">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
     </row>
-    <row r="90" spans="4:5">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
     </row>
-    <row r="91" spans="4:5">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
     </row>
-    <row r="92" spans="4:5">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
     </row>
-    <row r="93" spans="4:5">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
     </row>
-    <row r="94" spans="4:5">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
     </row>
-    <row r="95" spans="4:5">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
     </row>
-    <row r="96" spans="4:5">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
     </row>
-    <row r="97" spans="4:5">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E97" s="15"/>
     </row>
-    <row r="98" spans="4:5">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
     </row>
-    <row r="99" spans="4:5">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
     </row>
-    <row r="100" spans="4:5">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
     </row>
-    <row r="101" spans="4:5">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
     </row>
-    <row r="102" spans="4:5">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
     </row>
-    <row r="103" spans="4:5">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
     </row>
-    <row r="104" spans="4:5">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
     </row>
-    <row r="105" spans="4:5">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
     </row>
-    <row r="106" spans="4:5">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
     </row>
-    <row r="107" spans="4:5">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T107" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D32" r:id="rId1" display="https://www.bybit.com/zh-TW/task-center/pre_login?medium=paid_displayp&amp;source=TTD&amp;channel=paid_&amp;campaign=TW_AlwaysOn_600USD&amp;term=All_728x90&amp;content=V2_Rewards_Hub&amp;dtpid=1634637222262" xr:uid="{BC56DB34-E17A-46AB-860D-E99142FAFEF3}"/>
     <hyperlink ref="D12" r:id="rId2" display="https://www.bybit.com/zh-TW/task-center/pre_login?medium=paid_displayp&amp;source=TTD&amp;channel=paid_&amp;campaign=HK_AlwaysOn_600USD&amp;term=All_728x90&amp;content=V2_Rewards_Hub&amp;dtpid=1634637232805" xr:uid="{03A872AC-3C92-4EFB-8171-D0B97B71C988}"/>
@@ -4336,17 +4344,17 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="46.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="14.65" thickBot="1">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>159</v>
       </c>
@@ -4354,7 +4362,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -4370,7 +4378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -4378,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -4386,7 +4394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -4394,7 +4402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -4402,7 +4410,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -4410,7 +4418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -4418,7 +4426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -4426,7 +4434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -4434,7 +4442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -4442,7 +4450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -4450,7 +4458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>173</v>
       </c>
@@ -4458,7 +4466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -4466,7 +4474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -4474,7 +4482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -4482,7 +4490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -4490,7 +4498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -4498,7 +4506,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>179</v>
       </c>
@@ -4506,7 +4514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>180</v>
       </c>
@@ -4514,7 +4522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>181</v>
       </c>
@@ -4522,7 +4530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -4530,7 +4538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -4538,7 +4546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>184</v>
       </c>
@@ -4546,7 +4554,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>185</v>
       </c>
@@ -4554,7 +4562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>186</v>
       </c>
@@ -4562,7 +4570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -4570,7 +4578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>188</v>
       </c>
@@ -4578,7 +4586,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>189</v>
       </c>
@@ -4586,7 +4594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>190</v>
       </c>
@@ -4594,7 +4602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -4602,7 +4610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>192</v>
       </c>
@@ -4610,7 +4618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>193</v>
       </c>
@@ -4618,7 +4626,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>194</v>
       </c>
@@ -4626,7 +4634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>195</v>
       </c>
@@ -4634,7 +4642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>196</v>
       </c>
@@ -4642,7 +4650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>197</v>
       </c>
@@ -4650,7 +4658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>198</v>
       </c>
@@ -4658,7 +4666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>199</v>
       </c>
@@ -4666,7 +4674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -4674,7 +4682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>201</v>
       </c>
@@ -4682,7 +4690,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>202</v>
       </c>
@@ -4690,7 +4698,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -4698,7 +4706,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>204</v>
       </c>
@@ -4706,7 +4714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>205</v>
       </c>
@@ -4714,7 +4722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -4722,7 +4730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>207</v>
       </c>
@@ -4730,7 +4738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>208</v>
       </c>
@@ -4738,7 +4746,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>209</v>
       </c>
@@ -4746,7 +4754,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>210</v>
       </c>
@@ -4754,7 +4762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>211</v>
       </c>
@@ -4762,7 +4770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -4770,7 +4778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>213</v>
       </c>
@@ -4778,7 +4786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -4786,7 +4794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -4794,7 +4802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>216</v>
       </c>
@@ -4802,7 +4810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -4810,7 +4818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>218</v>
       </c>
@@ -4819,6 +4827,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
   <extLst>
@@ -4838,24 +4847,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="122" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="42.75">
+    <row r="2" spans="1:1" ht="56" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -4875,17 +4885,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="62.453125" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" thickBot="1">
+    <row r="1" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>220</v>
       </c>
@@ -4893,7 +4903,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -4901,7 +4911,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>224</v>
       </c>
@@ -4909,7 +4919,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -4917,7 +4927,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -4925,7 +4935,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>230</v>
       </c>
@@ -4933,7 +4943,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>232</v>
       </c>
@@ -4941,7 +4951,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -4949,7 +4959,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -4957,7 +4967,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>238</v>
       </c>
@@ -4965,7 +4975,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>240</v>
       </c>
@@ -4973,7 +4983,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>242</v>
       </c>
@@ -4981,7 +4991,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>244</v>
       </c>
@@ -4989,7 +4999,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>246</v>
       </c>
@@ -4997,7 +5007,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>248</v>
       </c>
@@ -5005,7 +5015,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>250</v>
       </c>
@@ -5013,7 +5023,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>252</v>
       </c>
@@ -5021,7 +5031,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>254</v>
       </c>
@@ -5029,7 +5039,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>256</v>
       </c>
@@ -5037,7 +5047,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>258</v>
       </c>
@@ -5045,7 +5055,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>260</v>
       </c>
@@ -5053,7 +5063,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>262</v>
       </c>
@@ -5061,7 +5071,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>264</v>
       </c>
@@ -5069,7 +5079,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>266</v>
       </c>
@@ -5077,7 +5087,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -5085,7 +5095,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>270</v>
       </c>
@@ -5093,7 +5103,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>272</v>
       </c>
@@ -5101,7 +5111,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>274</v>
       </c>
@@ -5109,7 +5119,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>276</v>
       </c>
@@ -5117,7 +5127,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>278</v>
       </c>
@@ -5125,7 +5135,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>280</v>
       </c>
@@ -5133,7 +5143,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>282</v>
       </c>
@@ -5141,7 +5151,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>284</v>
       </c>
@@ -5149,7 +5159,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>286</v>
       </c>
@@ -5157,7 +5167,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -5165,7 +5175,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>290</v>
       </c>
@@ -5173,7 +5183,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>292</v>
       </c>
@@ -5181,7 +5191,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>294</v>
       </c>
@@ -5189,7 +5199,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>296</v>
       </c>
@@ -5197,7 +5207,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" ht="28" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>298</v>
       </c>
@@ -5205,7 +5215,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>300</v>
       </c>
@@ -5213,7 +5223,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>302</v>
       </c>
@@ -5221,7 +5231,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>304</v>
       </c>
@@ -5229,7 +5239,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>306</v>
       </c>
@@ -5237,7 +5247,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>308</v>
       </c>
@@ -5245,7 +5255,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>310</v>
       </c>
@@ -5253,7 +5263,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>312</v>
       </c>
@@ -5261,7 +5271,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>314</v>
       </c>
@@ -5269,7 +5279,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>316</v>
       </c>
@@ -5277,7 +5287,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>318</v>
       </c>
@@ -5285,7 +5295,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>320</v>
       </c>
@@ -5293,7 +5303,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>322</v>
       </c>
@@ -5301,7 +5311,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>324</v>
       </c>
@@ -5309,7 +5319,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>326</v>
       </c>
@@ -5317,7 +5327,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>328</v>
       </c>
@@ -5325,7 +5335,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>330</v>
       </c>
@@ -5333,7 +5343,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>332</v>
       </c>
@@ -5341,7 +5351,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>334</v>
       </c>
@@ -5349,7 +5359,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>336</v>
       </c>
@@ -5357,7 +5367,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>338</v>
       </c>
@@ -5365,7 +5375,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>340</v>
       </c>
@@ -5373,7 +5383,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>342</v>
       </c>
@@ -5381,7 +5391,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>344</v>
       </c>
@@ -5389,7 +5399,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>346</v>
       </c>
@@ -5397,7 +5407,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>348</v>
       </c>
@@ -5405,7 +5415,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>350</v>
       </c>
@@ -5413,7 +5423,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>352</v>
       </c>
@@ -5421,7 +5431,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>354</v>
       </c>
@@ -5429,7 +5439,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>356</v>
       </c>
@@ -5437,7 +5447,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>358</v>
       </c>
@@ -5445,7 +5455,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>360</v>
       </c>
@@ -5453,7 +5463,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>362</v>
       </c>
@@ -5461,7 +5471,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>364</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>366</v>
       </c>
@@ -5477,7 +5487,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>368</v>
       </c>
@@ -5485,7 +5495,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>370</v>
       </c>
@@ -5493,7 +5503,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>372</v>
       </c>
@@ -5501,7 +5511,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>374</v>
       </c>
@@ -5509,7 +5519,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>376</v>
       </c>
@@ -5517,7 +5527,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>378</v>
       </c>
@@ -5525,7 +5535,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>380</v>
       </c>
@@ -5533,7 +5543,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>382</v>
       </c>
@@ -5541,7 +5551,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>384</v>
       </c>
@@ -5549,7 +5559,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>386</v>
       </c>
@@ -5557,7 +5567,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>388</v>
       </c>
@@ -5565,7 +5575,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>390</v>
       </c>
@@ -5573,7 +5583,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>392</v>
       </c>
@@ -5581,7 +5591,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>394</v>
       </c>
@@ -5589,7 +5599,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>396</v>
       </c>
@@ -5597,7 +5607,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>398</v>
       </c>
@@ -5605,7 +5615,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>400</v>
       </c>
@@ -5613,7 +5623,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>402</v>
       </c>
@@ -5621,7 +5631,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>404</v>
       </c>
@@ -5629,7 +5639,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>406</v>
       </c>
@@ -5637,7 +5647,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>408</v>
       </c>
@@ -5645,7 +5655,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>410</v>
       </c>
@@ -5653,7 +5663,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>412</v>
       </c>
@@ -5661,7 +5671,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>414</v>
       </c>
@@ -5669,7 +5679,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>416</v>
       </c>
@@ -5677,7 +5687,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>418</v>
       </c>
@@ -5685,7 +5695,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>420</v>
       </c>
@@ -5693,7 +5703,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>422</v>
       </c>
@@ -5701,7 +5711,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>424</v>
       </c>
@@ -5710,6 +5720,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -5729,66 +5740,67 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>435</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -5811,29 +5823,30 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.65" thickBot="1">
+    <row r="1" spans="1:1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>438</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5848,108 +5861,108 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.65" thickBot="1">
+    <row r="1" spans="1:1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>457</v>
       </c>
@@ -5958,6 +5971,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A19">
     <sortCondition ref="A19"/>
   </sortState>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5979,24 +5993,25 @@
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -6013,14 +6028,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6037,23 +6053,23 @@
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" customWidth="1"/>
+    <col min="7" max="7" width="33.1796875" customWidth="1"/>
     <col min="8" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1"/>
+    <col min="17" max="17" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6107,6 +6123,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
@@ -6126,28 +6143,28 @@
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="24" customWidth="1"/>
-    <col min="13" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6213,6 +6230,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -6227,42 +6245,42 @@
       <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" customWidth="1"/>
+    <col min="4" max="4" width="33.7265625" customWidth="1"/>
+    <col min="5" max="6" width="28.81640625" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" customWidth="1"/>
+    <col min="8" max="8" width="26.453125" customWidth="1"/>
     <col min="9" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="26.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.1796875" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="35.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="11"/>
-    <col min="19" max="19" width="9.140625" style="13"/>
+    <col min="14" max="14" width="35.7265625" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" customWidth="1"/>
+    <col min="16" max="16" width="14.81640625" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" style="11"/>
+    <col min="19" max="19" width="9.1796875" style="13"/>
     <col min="20" max="22" width="24" customWidth="1"/>
-    <col min="23" max="23" width="28.7109375" customWidth="1"/>
+    <col min="23" max="23" width="28.7265625" customWidth="1"/>
     <col min="24" max="25" width="24" customWidth="1"/>
-    <col min="26" max="26" width="29.7109375" customWidth="1"/>
-    <col min="27" max="27" width="28.7109375" customWidth="1"/>
-    <col min="28" max="28" width="31.28515625" customWidth="1"/>
-    <col min="29" max="29" width="27.5703125" customWidth="1"/>
+    <col min="26" max="26" width="29.7265625" customWidth="1"/>
+    <col min="27" max="27" width="28.7265625" customWidth="1"/>
+    <col min="28" max="28" width="31.26953125" customWidth="1"/>
+    <col min="29" max="29" width="27.54296875" customWidth="1"/>
     <col min="30" max="32" width="24" customWidth="1"/>
-    <col min="33" max="33" width="23.140625" customWidth="1"/>
-    <col min="34" max="34" width="19.85546875" customWidth="1"/>
-    <col min="35" max="35" width="22.140625" customWidth="1"/>
-    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.1796875" customWidth="1"/>
+    <col min="34" max="34" width="19.81640625" customWidth="1"/>
+    <col min="35" max="35" width="22.1796875" customWidth="1"/>
+    <col min="36" max="36" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6379,6 +6397,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6392,29 +6411,29 @@
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="5" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="5" width="27.26953125" customWidth="1"/>
     <col min="6" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.7265625" customWidth="1"/>
     <col min="11" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" customWidth="1"/>
-    <col min="15" max="15" width="31.28515625" customWidth="1"/>
-    <col min="16" max="16" width="27.5703125" customWidth="1"/>
+    <col min="13" max="13" width="29.7265625" customWidth="1"/>
+    <col min="14" max="14" width="28.7265625" customWidth="1"/>
+    <col min="15" max="15" width="31.26953125" customWidth="1"/>
+    <col min="16" max="16" width="27.54296875" customWidth="1"/>
     <col min="17" max="19" width="24" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.26953125" customWidth="1"/>
+    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6483,6 +6502,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -6501,27 +6521,27 @@
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="AD1" sqref="AD1"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="5" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="5" width="27.26953125" customWidth="1"/>
     <col min="6" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7265625" customWidth="1"/>
     <col min="10" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" customWidth="1"/>
+    <col min="12" max="12" width="29.7265625" customWidth="1"/>
+    <col min="13" max="13" width="28.7265625" customWidth="1"/>
+    <col min="14" max="14" width="31.26953125" customWidth="1"/>
+    <col min="15" max="15" width="27.54296875" customWidth="1"/>
     <col min="16" max="18" width="24" customWidth="1"/>
-    <col min="19" max="19" width="21.28515625" customWidth="1"/>
+    <col min="19" max="19" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6581,6 +6601,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -6594,27 +6615,27 @@
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="Y1" sqref="Y1"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" customWidth="1"/>
     <col min="7" max="17" width="24" customWidth="1"/>
-    <col min="18" max="18" width="24.5703125" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
-    <col min="20" max="20" width="24.140625" customWidth="1"/>
-    <col min="21" max="21" width="23.85546875" customWidth="1"/>
+    <col min="18" max="18" width="24.54296875" customWidth="1"/>
+    <col min="19" max="19" width="23.7265625" customWidth="1"/>
+    <col min="20" max="20" width="24.1796875" customWidth="1"/>
+    <col min="21" max="21" width="23.81640625" customWidth="1"/>
     <col min="22" max="24" width="24" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" customWidth="1"/>
+    <col min="25" max="25" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6692,6 +6713,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6710,30 +6732,30 @@
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" customWidth="1"/>
     <col min="5" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6793,6 +6815,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6811,27 +6834,27 @@
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" customWidth="1"/>
     <col min="5" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.7265625" customWidth="1"/>
     <col min="9" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" customWidth="1"/>
-    <col min="13" max="13" width="31.28515625" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="29.7265625" customWidth="1"/>
+    <col min="12" max="12" width="28.7265625" customWidth="1"/>
+    <col min="13" max="13" width="31.26953125" customWidth="1"/>
+    <col min="14" max="14" width="27.54296875" customWidth="1"/>
     <col min="15" max="17" width="24" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6888,6 +6911,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
